--- a/biology/Botanique/Lotus_bleu_d'Égypte/Lotus_bleu_d'Égypte.xlsx
+++ b/biology/Botanique/Lotus_bleu_d'Égypte/Lotus_bleu_d'Égypte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lotus_bleu_d%27%C3%89gypte</t>
+          <t>Lotus_bleu_d'Égypte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nymphaea caerulea
 Le Lotus bleu d’Égypte (Nymphaea caerulea) est une espèce de plantes aquatiques de la famille des Nymphaeaceae . Il ne s'agit pas d'un véritable Lotus dont le genre est Nelumbo,  qui lui fait partie de la famille des Nelumbonaceae. Cette plante est culturellement essentielle en Égypte antique. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lotus_bleu_d%27%C3%89gypte</t>
+          <t>Lotus_bleu_d'Égypte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nymphaea caerulea est une plante aquatique fixée dans la vase, possédant des feuilles flottantes et des fleurs émergées, brillamment colorées, dont les pétales bleu-violacé contrastent avec les étamines jaunes.
 	Lotus bleu d’Égypte
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lotus_bleu_d%27%C3%89gypte</t>
+          <t>Lotus_bleu_d'Égypte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nymphaea caerulea a fait l'objet d'un culte rituel dans l'Égypte antique. Contenant de l'aporphine (en) et d'autres alcaloïdes hallucinogènes, il est utilisé pour ses vertus psychotropes[3],[4],[5]. Ses fleurs sont également utilisées en tant que parures funéraires au même titre que les parures d'or et objets précieux, notamment dans les guirlandes végétales qui parent la momie de Ramsès II[6],[7]. Il partage avec une espèce proche à fleurs blanches, Nymphaea lotus, une riche iconographie qui orne les objets et murs de cette période et un hiéroglyphe leur est assigné montrant ainsi leur importance culturelle essentielle.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nymphaea caerulea a fait l'objet d'un culte rituel dans l'Égypte antique. Contenant de l'aporphine (en) et d'autres alcaloïdes hallucinogènes, il est utilisé pour ses vertus psychotropes. Ses fleurs sont également utilisées en tant que parures funéraires au même titre que les parures d'or et objets précieux, notamment dans les guirlandes végétales qui parent la momie de Ramsès II,. Il partage avec une espèce proche à fleurs blanches, Nymphaea lotus, une riche iconographie qui orne les objets et murs de cette période et un hiéroglyphe leur est assigné montrant ainsi leur importance culturelle essentielle.
 	Ornementations en Égypte antique
 			Peinture de la chambre funéraire de Nebseni.
 			Poterie de la XVIIIe dynastie.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lotus_bleu_d%27%C3%89gypte</t>
+          <t>Lotus_bleu_d'Égypte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,9 +600,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (21 août 2014)[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (21 août 2014) :
 sous-espèce Nymphaea caerulea subsp. zanzibarensis (Casp.) S.W.L. Jacobs</t>
         </is>
       </c>
